--- a/biology/Microbiologie/Symbiobacterium_ostreiconchae/Symbiobacterium_ostreiconchae.xlsx
+++ b/biology/Microbiologie/Symbiobacterium_ostreiconchae/Symbiobacterium_ostreiconchae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Symbiobacterium ostreiconchae est une bactérie thermophile de coloration de gram négative mais dont la paroi cellulaire est typique des bactéries à Gram-positif.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le long des côtes du Pacifique au niveau d'Eno-shima (Japon), que la souche KY38, devenue souche type de l'espèce Symbiobacterium ostreiconchae, a été isolée d'une huître[2]. Cette espèce a été décrite en même temps que les espèces S. turbinis et S. terraclitae[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le long des côtes du Pacifique au niveau d'Eno-shima (Japon), que la souche KY38, devenue souche type de l'espèce Symbiobacterium ostreiconchae, a été isolée d'une huître. Cette espèce a été décrite en même temps que les espèces S. turbinis et S. terraclitae.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette espèce Symbiobacterium ostreiconchae est la suivante : os.tre’i.con’chae. L. fem. n. ostrea, huître; L. fem. n. concha, une coquille; N.L. gen. fem. n. ostreiconchae car la souche type de cette espèce a été isolée d'une coquille d'huître[4],[5]. Le nouveau nom a été validé également en 2015 par l'ICSP et publié dans le journal IJSEM[6].
-Phylogénie
-Les analyses phylogénétiques des séquences de l'ARNr 16S de la souche KY38 ont démontré que cette bactérie appartient bien au genre Symbiobacterium[7]. La séquence de cette souche est identique à 97,8 % de celle de Symbiobacterium thermophilum[7]. Le groupe de bactéries des Symbiobacterium représente un cluster au sein de l'ordre Clostridiales mais distinct des autres familles[7].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce Symbiobacterium ostreiconchae est la suivante : os.tre’i.con’chae. L. fem. n. ostrea, huître; L. fem. n. concha, une coquille; N.L. gen. fem. n. ostreiconchae car la souche type de cette espèce a été isolée d'une coquille d'huître,. Le nouveau nom a été validé également en 2015 par l'ICSP et publié dans le journal IJSEM.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Symbiobacterium_ostreiconchae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symbiobacterium_ostreiconchae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses phylogénétiques des séquences de l'ARNr 16S de la souche KY38 ont démontré que cette bactérie appartient bien au genre Symbiobacterium. La séquence de cette souche est identique à 97,8 % de celle de Symbiobacterium thermophilum. Le groupe de bactéries des Symbiobacterium représente un cluster au sein de l'ordre Clostridiales mais distinct des autres familles.
 </t>
         </is>
       </c>
